--- a/Documentation/DecToHex_Conversion_Table.xlsx
+++ b/Documentation/DecToHex_Conversion_Table.xlsx
@@ -349,38 +349,38 @@
   <sheetData>
     <row r="1" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1">
-        <v>248842</v>
+        <v>97389</v>
       </c>
       <c r="C1" t="str">
         <f>DEC2HEX($B1,8)</f>
-        <v>0003CC0A</v>
+        <v>00017C6D</v>
       </c>
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2">
-        <v>96655</v>
+        <v>249524</v>
       </c>
       <c r="C2" t="str">
         <f>DEC2HEX($B2,8)</f>
-        <v>0001798F</v>
+        <v>0003CEB4</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3">
-        <v>96070</v>
+        <v>97436</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" ref="C3:C6" si="0">DEC2HEX($B3,8)</f>
-        <v>00017746</v>
+        <v>00017C9C</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4">
-        <v>248259</v>
+        <v>249593</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" si="0"/>
-        <v>0003C9C3</v>
+        <v>0003CEF9</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">

--- a/Documentation/DecToHex_Conversion_Table.xlsx
+++ b/Documentation/DecToHex_Conversion_Table.xlsx
@@ -349,38 +349,38 @@
   <sheetData>
     <row r="1" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1">
-        <v>97389</v>
+        <v>30489</v>
       </c>
       <c r="C1" t="str">
         <f>DEC2HEX($B1,8)</f>
-        <v>00017C6D</v>
+        <v>00007719</v>
       </c>
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2">
-        <v>249524</v>
+        <v>30481</v>
       </c>
       <c r="C2" t="str">
         <f>DEC2HEX($B2,8)</f>
-        <v>0003CEB4</v>
+        <v>00007711</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3">
-        <v>97436</v>
+        <v>31784</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" ref="C3:C6" si="0">DEC2HEX($B3,8)</f>
-        <v>00017C9C</v>
+        <v>00007C28</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4">
-        <v>249593</v>
+        <v>31782</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" si="0"/>
-        <v>0003CEF9</v>
+        <v>00007C26</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">

--- a/Documentation/DecToHex_Conversion_Table.xlsx
+++ b/Documentation/DecToHex_Conversion_Table.xlsx
@@ -339,7 +339,7 @@
   <dimension ref="B1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C4"/>
+      <selection activeCell="C1" sqref="C1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -349,38 +349,38 @@
   <sheetData>
     <row r="1" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1">
-        <v>30489</v>
+        <v>97389</v>
       </c>
       <c r="C1" t="str">
         <f>DEC2HEX($B1,8)</f>
-        <v>00007719</v>
+        <v>00017C6D</v>
       </c>
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2">
-        <v>30481</v>
+        <v>249536</v>
       </c>
       <c r="C2" t="str">
         <f>DEC2HEX($B2,8)</f>
-        <v>00007711</v>
+        <v>0003CEC0</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3">
-        <v>31784</v>
+        <v>65428</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" ref="C3:C6" si="0">DEC2HEX($B3,8)</f>
-        <v>00007C28</v>
+        <v>0000FF94</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4">
-        <v>31782</v>
+        <v>65693</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" si="0"/>
-        <v>00007C26</v>
+        <v>0001009D</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">

--- a/Documentation/DecToHex_Conversion_Table.xlsx
+++ b/Documentation/DecToHex_Conversion_Table.xlsx
@@ -339,7 +339,7 @@
   <dimension ref="B1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -349,20 +349,20 @@
   <sheetData>
     <row r="1" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1">
-        <v>97389</v>
+        <v>65873</v>
       </c>
       <c r="C1" t="str">
         <f>DEC2HEX($B1,8)</f>
-        <v>00017C6D</v>
+        <v>00010151</v>
       </c>
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2">
-        <v>249536</v>
+        <v>66185</v>
       </c>
       <c r="C2" t="str">
         <f>DEC2HEX($B2,8)</f>
-        <v>0003CEC0</v>
+        <v>00010289</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">

--- a/Documentation/DecToHex_Conversion_Table.xlsx
+++ b/Documentation/DecToHex_Conversion_Table.xlsx
@@ -339,7 +339,7 @@
   <dimension ref="B1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C1" sqref="C1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -349,20 +349,20 @@
   <sheetData>
     <row r="1" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1">
-        <v>65873</v>
+        <v>97462</v>
       </c>
       <c r="C1" t="str">
         <f>DEC2HEX($B1,8)</f>
-        <v>00010151</v>
+        <v>00017CB6</v>
       </c>
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2">
-        <v>66185</v>
+        <v>249607</v>
       </c>
       <c r="C2" t="str">
         <f>DEC2HEX($B2,8)</f>
-        <v>00010289</v>
+        <v>0003CF07</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">

--- a/Documentation/DecToHex_Conversion_Table.xlsx
+++ b/Documentation/DecToHex_Conversion_Table.xlsx
@@ -339,7 +339,7 @@
   <dimension ref="B1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C2"/>
+      <selection activeCell="C1" sqref="C1:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -349,38 +349,38 @@
   <sheetData>
     <row r="1" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1">
-        <v>97462</v>
+        <v>66382</v>
       </c>
       <c r="C1" t="str">
         <f>DEC2HEX($B1,8)</f>
-        <v>00017CB6</v>
+        <v>0001034E</v>
       </c>
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2">
-        <v>249607</v>
+        <v>66001</v>
       </c>
       <c r="C2" t="str">
         <f>DEC2HEX($B2,8)</f>
-        <v>0003CF07</v>
+        <v>000101D1</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3">
-        <v>65428</v>
+        <v>66071</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" ref="C3:C6" si="0">DEC2HEX($B3,8)</f>
-        <v>0000FF94</v>
+        <v>00010217</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4">
-        <v>65693</v>
+        <v>66292</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" si="0"/>
-        <v>0001009D</v>
+        <v>000102F4</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">

--- a/Documentation/DecToHex_Conversion_Table.xlsx
+++ b/Documentation/DecToHex_Conversion_Table.xlsx
@@ -349,38 +349,38 @@
   <sheetData>
     <row r="1" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1">
-        <v>66382</v>
+        <v>65047</v>
       </c>
       <c r="C1" t="str">
         <f>DEC2HEX($B1,8)</f>
-        <v>0001034E</v>
+        <v>0000FE17</v>
       </c>
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2">
-        <v>66001</v>
+        <v>65037</v>
       </c>
       <c r="C2" t="str">
         <f>DEC2HEX($B2,8)</f>
-        <v>000101D1</v>
+        <v>0000FE0D</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3">
-        <v>66071</v>
+        <v>65123</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" ref="C3:C6" si="0">DEC2HEX($B3,8)</f>
-        <v>00010217</v>
+        <v>0000FE63</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4">
-        <v>66292</v>
+        <v>65156</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" si="0"/>
-        <v>000102F4</v>
+        <v>0000FE84</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">

--- a/Documentation/DecToHex_Conversion_Table.xlsx
+++ b/Documentation/DecToHex_Conversion_Table.xlsx
@@ -349,38 +349,38 @@
   <sheetData>
     <row r="1" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1">
-        <v>65047</v>
+        <v>66139</v>
       </c>
       <c r="C1" t="str">
         <f>DEC2HEX($B1,8)</f>
-        <v>0000FE17</v>
+        <v>0001025B</v>
       </c>
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2">
-        <v>65037</v>
+        <v>66066</v>
       </c>
       <c r="C2" t="str">
         <f>DEC2HEX($B2,8)</f>
-        <v>0000FE0D</v>
+        <v>00010212</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3">
-        <v>65123</v>
+        <v>66239</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" ref="C3:C6" si="0">DEC2HEX($B3,8)</f>
-        <v>0000FE63</v>
+        <v>000102BF</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4">
-        <v>65156</v>
+        <v>66199</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" si="0"/>
-        <v>0000FE84</v>
+        <v>00010297</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">

--- a/Documentation/DecToHex_Conversion_Table.xlsx
+++ b/Documentation/DecToHex_Conversion_Table.xlsx
@@ -349,38 +349,38 @@
   <sheetData>
     <row r="1" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1">
-        <v>66139</v>
+        <v>30471</v>
       </c>
       <c r="C1" t="str">
         <f>DEC2HEX($B1,8)</f>
-        <v>0001025B</v>
+        <v>00007707</v>
       </c>
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2">
-        <v>66066</v>
+        <v>30487</v>
       </c>
       <c r="C2" t="str">
         <f>DEC2HEX($B2,8)</f>
-        <v>00010212</v>
+        <v>00007717</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3">
-        <v>66239</v>
+        <v>31792</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" ref="C3:C6" si="0">DEC2HEX($B3,8)</f>
-        <v>000102BF</v>
+        <v>00007C30</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4">
-        <v>66199</v>
+        <v>31800</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" si="0"/>
-        <v>00010297</v>
+        <v>00007C38</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">

--- a/Documentation/DecToHex_Conversion_Table.xlsx
+++ b/Documentation/DecToHex_Conversion_Table.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30915" windowHeight="12270"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="30915" windowHeight="12270"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -349,38 +349,38 @@
   <sheetData>
     <row r="1" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1">
-        <v>30471</v>
+        <v>66067</v>
       </c>
       <c r="C1" t="str">
         <f>DEC2HEX($B1,8)</f>
-        <v>00007707</v>
+        <v>00010213</v>
       </c>
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2">
-        <v>30487</v>
+        <v>66122</v>
       </c>
       <c r="C2" t="str">
         <f>DEC2HEX($B2,8)</f>
-        <v>00007717</v>
+        <v>0001024A</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3">
-        <v>31792</v>
+        <v>66177</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" ref="C3:C6" si="0">DEC2HEX($B3,8)</f>
-        <v>00007C30</v>
+        <v>00010281</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4">
-        <v>31800</v>
+        <v>66145</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" si="0"/>
-        <v>00007C38</v>
+        <v>00010261</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">

--- a/Documentation/DecToHex_Conversion_Table.xlsx
+++ b/Documentation/DecToHex_Conversion_Table.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="30915" windowHeight="12270"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30915" windowHeight="12270"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -349,38 +349,38 @@
   <sheetData>
     <row r="1" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1">
-        <v>66067</v>
+        <v>65288</v>
       </c>
       <c r="C1" t="str">
         <f>DEC2HEX($B1,8)</f>
-        <v>00010213</v>
+        <v>0000FF08</v>
       </c>
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2">
-        <v>66122</v>
+        <v>65300</v>
       </c>
       <c r="C2" t="str">
         <f>DEC2HEX($B2,8)</f>
-        <v>0001024A</v>
+        <v>0000FF14</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3">
-        <v>66177</v>
+        <v>65176</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" ref="C3:C6" si="0">DEC2HEX($B3,8)</f>
-        <v>00010281</v>
+        <v>0000FE98</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4">
-        <v>66145</v>
+        <v>65367</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" si="0"/>
-        <v>00010261</v>
+        <v>0000FF57</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
